--- a/biology/Mycologie/Boletus_inedulis/Boletus_inedulis.xlsx
+++ b/biology/Mycologie/Boletus_inedulis/Boletus_inedulis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boletus inedulis est une espèce de champignons de la famille des Boletaceae.
 </t>
@@ -511,11 +523,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Boletus inedulis (Murrill) Murrill, 1938[1],[2].
-L'espèce a été initialement classée dans le genre Ceriomyces sous le basionyme Ceriomyces inedulis Murrill, 1938[1].
-Boletus inedulis a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Boletus inedulis (Murrill) Murrill, 1938,.
+L'espèce a été initialement classée dans le genre Ceriomyces sous le basionyme Ceriomyces inedulis Murrill, 1938.
+Boletus inedulis a pour synonymes :
 Boletus subclavatipes subsp. inedulis (Murrill) Singer, 1978
 Ceriomyces inedulis Murrill, 1938</t>
         </is>
@@ -545,9 +559,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, du préfixe privatif latin in, et du latin edulis, « mangeable, comestible, bon à manger », lui a été donné en référence au goût très désagréable de ce champignon mais dont la consommation, selon l'auteur, ne présentait pas d'effets néfastes[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, du préfixe privatif latin in, et du latin edulis, « mangeable, comestible, bon à manger », lui a été donné en référence au goût très désagréable de ce champignon mais dont la consommation, selon l'auteur, ne présentait pas d'effets néfastes.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) William A. Murrill, « New Boletes », Mycologia, Mycological Society of America (d), NYBG et Taylor &amp; Francis, vol. 30, no 5,‎ septembre 1938, p. 520-525 (ISSN 0027-5514 et 1557-2536, OCLC 1640733, DOI 10.1080/00275514.1938.12017294, JSTOR 3754346)</t>
         </is>
